--- a/Test-cases.Aliexpress.xlsx
+++ b/Test-cases.Aliexpress.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albina\Test-artifacts.git\Test-artifacts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21831DD5-C357-4EC3-BD82-35D6352943AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Тест-кейсы" sheetId="1" r:id="rId4"/>
+    <sheet name="Тест-кейсы" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -53,18 +62,24 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Открыт сайт </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://aliexpress.ru/</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
   </si>
@@ -136,19 +151,25 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Открыт сайт </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://aliexpress.ru/
 </t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Пользователь зарегистрирован в системе</t>
     </r>
   </si>
@@ -190,19 +211,25 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Открыт сайт </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://aliexpress.ru/
 </t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Пользователь 1 и Пользователь 2 зарегистрированы в системе</t>
     </r>
   </si>
@@ -223,19 +250,25 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Открыт сайт </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://aliexpress.ru/
 </t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Пользователь зарегистрирован в системе</t>
     </r>
   </si>
@@ -268,19 +301,25 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Открыт сайт </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://aliexpress.ru/
 </t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Пользователь 1 и Пользователь 2 зарегистрированы в системе</t>
     </r>
   </si>
@@ -297,44 +336,56 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -342,7 +393,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -352,122 +403,151 @@
     </fill>
   </fills>
   <borders count="7">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -657,25 +737,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="34.75"/>
-    <col customWidth="1" min="2" max="2" width="45.88"/>
-    <col customWidth="1" min="3" max="3" width="42.0"/>
+    <col min="1" max="1" width="34.77734375" customWidth="1"/>
+    <col min="2" max="2" width="45.88671875" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -684,7 +769,7 @@
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -693,7 +778,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -702,7 +787,7 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -711,7 +796,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -720,7 +805,7 @@
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -729,7 +814,7 @@
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
@@ -738,14 +823,14 @@
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>15</v>
       </c>
@@ -754,14 +839,14 @@
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
@@ -770,7 +855,7 @@
       </c>
       <c r="C11" s="3"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>20</v>
       </c>
@@ -779,7 +864,7 @@
       </c>
       <c r="C12" s="3"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>22</v>
       </c>
@@ -788,7 +873,7 @@
       </c>
       <c r="C13" s="3"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>24</v>
       </c>
@@ -797,7 +882,7 @@
       </c>
       <c r="C14" s="3"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>26</v>
       </c>
@@ -806,7 +891,7 @@
       </c>
       <c r="C15" s="3"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>28</v>
       </c>
@@ -815,7 +900,7 @@
       </c>
       <c r="C16" s="3"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>30</v>
       </c>
@@ -824,7 +909,7 @@
       </c>
       <c r="C17" s="3"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>32</v>
       </c>
@@ -833,12 +918,12 @@
       </c>
       <c r="C18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -847,7 +932,7 @@
       </c>
       <c r="C20" s="3"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>2</v>
       </c>
@@ -856,7 +941,7 @@
       </c>
       <c r="C21" s="3"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>4</v>
       </c>
@@ -865,7 +950,7 @@
       </c>
       <c r="C22" s="3"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>6</v>
       </c>
@@ -874,7 +959,7 @@
       </c>
       <c r="C23" s="3"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>8</v>
       </c>
@@ -883,7 +968,7 @@
       </c>
       <c r="C24" s="3"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>10</v>
       </c>
@@ -892,7 +977,7 @@
       </c>
       <c r="C25" s="3"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>12</v>
       </c>
@@ -901,14 +986,14 @@
       </c>
       <c r="C26" s="3"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="3"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>15</v>
       </c>
@@ -917,14 +1002,14 @@
       </c>
       <c r="C28" s="3"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>18</v>
       </c>
@@ -933,7 +1018,7 @@
       </c>
       <c r="C30" s="3"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>37</v>
       </c>
@@ -942,7 +1027,7 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>39</v>
       </c>
@@ -951,7 +1036,7 @@
       </c>
       <c r="C32" s="3"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>41</v>
       </c>
@@ -960,7 +1045,7 @@
       </c>
       <c r="C33" s="3"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>43</v>
       </c>
@@ -969,12 +1054,12 @@
       </c>
       <c r="C34" s="3"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="17"/>
       <c r="C35" s="3"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -983,7 +1068,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>2</v>
       </c>
@@ -992,7 +1077,7 @@
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>4</v>
       </c>
@@ -1001,7 +1086,7 @@
       </c>
       <c r="C38" s="3"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -1010,7 +1095,7 @@
       </c>
       <c r="C39" s="3"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>8</v>
       </c>
@@ -1019,7 +1104,7 @@
       </c>
       <c r="C40" s="3"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>10</v>
       </c>
@@ -1028,7 +1113,7 @@
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>12</v>
       </c>
@@ -1037,14 +1122,14 @@
       </c>
       <c r="C42" s="3"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="3"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>15</v>
       </c>
@@ -1053,14 +1138,14 @@
       </c>
       <c r="C44" s="3"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="3"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>18</v>
       </c>
@@ -1069,7 +1154,7 @@
       </c>
       <c r="C46" s="3"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>37</v>
       </c>
@@ -1078,7 +1163,7 @@
       </c>
       <c r="C47" s="3"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>50</v>
       </c>
@@ -1087,7 +1172,7 @@
       </c>
       <c r="C48" s="3"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>51</v>
       </c>
@@ -1096,7 +1181,7 @@
       </c>
       <c r="C49" s="3"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
         <v>43</v>
       </c>
@@ -1105,12 +1190,12 @@
       </c>
       <c r="C50" s="3"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -1119,7 +1204,7 @@
       </c>
       <c r="C52" s="3"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>2</v>
       </c>
@@ -1128,7 +1213,7 @@
       </c>
       <c r="C53" s="3"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>4</v>
       </c>
@@ -1137,7 +1222,7 @@
       </c>
       <c r="C54" s="3"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>6</v>
       </c>
@@ -1146,7 +1231,7 @@
       </c>
       <c r="C55" s="3"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>8</v>
       </c>
@@ -1155,7 +1240,7 @@
       </c>
       <c r="C56" s="3"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -1164,7 +1249,7 @@
       </c>
       <c r="C57" s="3"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>12</v>
       </c>
@@ -1173,14 +1258,14 @@
       </c>
       <c r="C58" s="3"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="3"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>15</v>
       </c>
@@ -1189,14 +1274,14 @@
       </c>
       <c r="C60" s="3"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="3"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>18</v>
       </c>
@@ -1205,7 +1290,7 @@
       </c>
       <c r="C62" s="3"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>37</v>
       </c>
@@ -1214,7 +1299,7 @@
       </c>
       <c r="C63" s="3"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>56</v>
       </c>
@@ -1223,7 +1308,7 @@
       </c>
       <c r="C64" s="3"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
         <v>58</v>
       </c>
@@ -1232,7 +1317,7 @@
       </c>
       <c r="C65" s="3"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
         <v>60</v>
       </c>
@@ -1241,7 +1326,7 @@
       </c>
       <c r="C66" s="3"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
         <v>61</v>
       </c>
@@ -1250,12 +1335,12 @@
       </c>
       <c r="C67" s="3"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
@@ -1264,7 +1349,7 @@
       </c>
       <c r="C69" s="3"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>2</v>
       </c>
@@ -1273,7 +1358,7 @@
       </c>
       <c r="C70" s="3"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>4</v>
       </c>
@@ -1282,7 +1367,7 @@
       </c>
       <c r="C71" s="3"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>6</v>
       </c>
@@ -1291,7 +1376,7 @@
       </c>
       <c r="C72" s="3"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>8</v>
       </c>
@@ -1300,7 +1385,7 @@
       </c>
       <c r="C73" s="3"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>10</v>
       </c>
@@ -1309,7 +1394,7 @@
       </c>
       <c r="C74" s="3"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>12</v>
       </c>
@@ -1318,14 +1403,14 @@
       </c>
       <c r="C75" s="3"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="3"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>15</v>
       </c>
@@ -1334,14 +1419,14 @@
       </c>
       <c r="C77" s="3"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B78" s="9"/>
       <c r="C78" s="3"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>18</v>
       </c>
@@ -1350,7 +1435,7 @@
       </c>
       <c r="C79" s="3"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>37</v>
       </c>
@@ -1359,7 +1444,7 @@
       </c>
       <c r="C80" s="3"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
         <v>56</v>
       </c>
@@ -1368,7 +1453,7 @@
       </c>
       <c r="C81" s="3"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
         <v>66</v>
       </c>
@@ -1377,7 +1462,7 @@
       </c>
       <c r="C82" s="3"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
         <v>67</v>
       </c>
@@ -1386,7 +1471,7 @@
       </c>
       <c r="C83" s="3"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="15" t="s">
         <v>61</v>
       </c>
@@ -1395,19 +1480,19 @@
       </c>
       <c r="C84" s="3"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B7"/>
-    <hyperlink r:id="rId2" ref="B26"/>
-    <hyperlink r:id="rId3" ref="B42"/>
-    <hyperlink r:id="rId4" ref="B58"/>
-    <hyperlink r:id="rId5" ref="B75"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B26" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B42" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B58" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B75" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
-  <drawing r:id="rId6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>